--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_byte</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
     </r>
   </si>
 </sst>
@@ -438,7 +469,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -472,9 +503,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_char</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value.</t>
     </r>
   </si>
 </sst>
@@ -469,7 +500,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -514,9 +545,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_decimal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
     </r>
   </si>
 </sst>
@@ -500,7 +531,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -556,9 +587,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -140,6 +140,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_double</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double</t>
     </r>
     <r>
       <rPr>
@@ -531,7 +562,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -598,9 +629,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_float</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
     </r>
     <r>
       <rPr>
@@ -562,7 +593,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,9 +671,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_int</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
     </r>
     <r>
       <rPr>
@@ -593,7 +624,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -682,9 +713,15 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -233,6 +233,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_long</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long</t>
     </r>
     <r>
       <rPr>
@@ -624,7 +655,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,9 +755,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +264,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>long</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_sbyte</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sbyte</t>
     </r>
     <r>
       <rPr>
@@ -655,7 +686,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -766,9 +797,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -295,6 +295,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>sbyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>short</t>
     </r>
     <r>
       <rPr>
@@ -685,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -808,9 +839,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -326,6 +326,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>short</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_uint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uint</t>
     </r>
     <r>
       <rPr>
@@ -716,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -850,9 +881,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>uint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_ulong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulong</t>
     </r>
     <r>
       <rPr>
@@ -747,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -892,9 +923,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -388,6 +388,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ulong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>value_types_ushort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reads and writes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ushort</t>
     </r>
     <r>
       <rPr>
@@ -778,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -934,9 +965,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -430,13 +430,44 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_if_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statement.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,11 +837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -976,9 +1007,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -458,6 +458,36 @@
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_if_else_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if…else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> statement.</t>
@@ -840,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,9 +1048,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -491,6 +491,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_if_else_if_else_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">if…else if…else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement.</t>
     </r>
   </si>
 </sst>
@@ -871,7 +902,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1059,9 +1090,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -522,6 +522,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_if_else_if_else_if_else_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if…else if…else if…else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statement.</t>
     </r>
   </si>
 </sst>
@@ -902,7 +933,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1101,9 +1132,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -542,6 +542,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>if…else if…else if…else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_nested_if_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nested if</t>
     </r>
     <r>
       <rPr>
@@ -933,7 +964,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,9 +1174,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>

--- a/docs/test_programs_descriptions/CSF_csharp_features.xlsx
+++ b/docs/test_programs_descriptions/CSF_csharp_features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -584,6 +584,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>decision_making_switch_statemtn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement.</t>
     </r>
   </si>
 </sst>
@@ -963,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1185,9 +1216,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
